--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Tnfsf13b-Tnfrsf13b.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Tnfsf13b-Tnfrsf13b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,6 +89,9 @@
   </si>
   <si>
     <t>Neutro</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
   <si>
     <t>Tnfsf13b</t>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.52276193741975</v>
+        <v>0.054373</v>
       </c>
       <c r="H2">
-        <v>1.52276193741975</v>
+        <v>0.163119</v>
       </c>
       <c r="I2">
-        <v>0.1981079505044177</v>
+        <v>0.006530015879180836</v>
       </c>
       <c r="J2">
-        <v>0.1981079505044177</v>
+        <v>0.006530015879180836</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>9.38041340379918</v>
+        <v>0.006825333333333333</v>
       </c>
       <c r="N2">
-        <v>9.38041340379918</v>
+        <v>0.020476</v>
       </c>
       <c r="O2">
-        <v>0.321735600464174</v>
+        <v>0.0002236012763356543</v>
       </c>
       <c r="P2">
-        <v>0.321735600464174</v>
+        <v>0.0002236012763356543</v>
       </c>
       <c r="Q2">
-        <v>14.28413648856743</v>
+        <v>0.0003711138493333334</v>
       </c>
       <c r="R2">
-        <v>14.28413648856743</v>
+        <v>0.003340024644</v>
       </c>
       <c r="S2">
-        <v>0.06373838041226569</v>
+        <v>1.460119885076925E-06</v>
       </c>
       <c r="T2">
-        <v>0.06373838041226569</v>
+        <v>1.460119885076924E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.52276193741975</v>
+        <v>0.054373</v>
       </c>
       <c r="H3">
-        <v>1.52276193741975</v>
+        <v>0.163119</v>
       </c>
       <c r="I3">
-        <v>0.1981079505044177</v>
+        <v>0.006530015879180836</v>
       </c>
       <c r="J3">
-        <v>0.1981079505044177</v>
+        <v>0.006530015879180836</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>15.8836498318493</v>
+        <v>9.905103</v>
       </c>
       <c r="N3">
-        <v>15.8836498318493</v>
+        <v>29.715309</v>
       </c>
       <c r="O3">
-        <v>0.5447878890010289</v>
+        <v>0.3244960450824553</v>
       </c>
       <c r="P3">
-        <v>0.5447878890010289</v>
+        <v>0.3244960450824553</v>
       </c>
       <c r="Q3">
-        <v>24.18701739124373</v>
+        <v>0.538570165419</v>
       </c>
       <c r="R3">
-        <v>24.18701739124373</v>
+        <v>4.847131488771001</v>
       </c>
       <c r="S3">
-        <v>0.107926812149622</v>
+        <v>0.002118964327119814</v>
       </c>
       <c r="T3">
-        <v>0.107926812149622</v>
+        <v>0.002118964327119814</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,185 +652,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.52276193741975</v>
+        <v>0.054373</v>
       </c>
       <c r="H4">
-        <v>1.52276193741975</v>
+        <v>0.163119</v>
       </c>
       <c r="I4">
-        <v>0.1981079505044177</v>
+        <v>0.006530015879180836</v>
       </c>
       <c r="J4">
-        <v>0.1981079505044177</v>
+        <v>0.006530015879180836</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.89159560429923</v>
+        <v>16.576418</v>
       </c>
       <c r="N4">
-        <v>3.89159560429923</v>
+        <v>49.729254</v>
       </c>
       <c r="O4">
-        <v>0.1334765105347971</v>
+        <v>0.5430516050800909</v>
       </c>
       <c r="P4">
-        <v>0.1334765105347971</v>
+        <v>0.5430516050800909</v>
       </c>
       <c r="Q4">
-        <v>5.925973662056879</v>
+        <v>0.9013095759140001</v>
       </c>
       <c r="R4">
-        <v>5.925973662056879</v>
+        <v>8.111786183226002</v>
       </c>
       <c r="S4">
-        <v>0.02644275794252997</v>
+        <v>0.003546135604387634</v>
       </c>
       <c r="T4">
-        <v>0.02644275794252997</v>
+        <v>0.003546135604387634</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.544801435030992</v>
+        <v>0.054373</v>
       </c>
       <c r="H5">
-        <v>0.544801435030992</v>
+        <v>0.163119</v>
       </c>
       <c r="I5">
-        <v>0.07087745830365122</v>
+        <v>0.006530015879180836</v>
       </c>
       <c r="J5">
-        <v>0.07087745830365122</v>
+        <v>0.006530015879180836</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.38041340379918</v>
+        <v>3.955061333333333</v>
       </c>
       <c r="N5">
-        <v>9.38041340379918</v>
+        <v>11.865184</v>
       </c>
       <c r="O5">
-        <v>0.321735600464174</v>
+        <v>0.1295697541686552</v>
       </c>
       <c r="P5">
-        <v>0.321735600464174</v>
+        <v>0.1295697541686552</v>
       </c>
       <c r="Q5">
-        <v>5.110462683573745</v>
+        <v>0.2150485498773334</v>
       </c>
       <c r="R5">
-        <v>5.110462683573745</v>
+        <v>1.935436948896</v>
       </c>
       <c r="S5">
-        <v>0.02280380160669968</v>
+        <v>0.0008460925521828756</v>
       </c>
       <c r="T5">
-        <v>0.02280380160669968</v>
+        <v>0.0008460925521828756</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.544801435030992</v>
+        <v>0.054373</v>
       </c>
       <c r="H6">
-        <v>0.544801435030992</v>
+        <v>0.163119</v>
       </c>
       <c r="I6">
-        <v>0.07087745830365122</v>
+        <v>0.006530015879180836</v>
       </c>
       <c r="J6">
-        <v>0.07087745830365122</v>
+        <v>0.006530015879180836</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>15.8836498318493</v>
+        <v>0.08116466666666666</v>
       </c>
       <c r="N6">
-        <v>15.8836498318493</v>
+        <v>0.243494</v>
       </c>
       <c r="O6">
-        <v>0.5447878890010289</v>
+        <v>0.002658994392463069</v>
       </c>
       <c r="P6">
-        <v>0.5447878890010289</v>
+        <v>0.002658994392463069</v>
       </c>
       <c r="Q6">
-        <v>8.653435221921274</v>
+        <v>0.004413166420666667</v>
       </c>
       <c r="R6">
-        <v>8.653435221921274</v>
+        <v>0.039718497786</v>
       </c>
       <c r="S6">
-        <v>0.0386131808870046</v>
+        <v>1.736327560543664E-05</v>
       </c>
       <c r="T6">
-        <v>0.0386131808870046</v>
+        <v>1.736327560543664E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,433 +838,1549 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.544801435030992</v>
+        <v>1.567211333333334</v>
       </c>
       <c r="H7">
-        <v>0.544801435030992</v>
+        <v>4.701634</v>
       </c>
       <c r="I7">
-        <v>0.07087745830365122</v>
+        <v>0.1882168519798215</v>
       </c>
       <c r="J7">
-        <v>0.07087745830365122</v>
+        <v>0.1882168519798215</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>3.89159560429923</v>
+        <v>0.006825333333333333</v>
       </c>
       <c r="N7">
-        <v>3.89159560429923</v>
+        <v>0.020476</v>
       </c>
       <c r="O7">
-        <v>0.1334765105347971</v>
+        <v>0.0002236012763356543</v>
       </c>
       <c r="P7">
-        <v>0.1334765105347971</v>
+        <v>0.0002236012763356543</v>
       </c>
       <c r="Q7">
-        <v>2.120146869782521</v>
+        <v>0.01069673975377778</v>
       </c>
       <c r="R7">
-        <v>2.120146869782521</v>
+        <v>0.09627065778400001</v>
       </c>
       <c r="S7">
-        <v>0.009460475809946944</v>
+        <v>4.208552833056702E-05</v>
       </c>
       <c r="T7">
-        <v>0.009460475809946944</v>
+        <v>4.208552833056701E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.68277912460056</v>
+        <v>1.567211333333334</v>
       </c>
       <c r="H8">
-        <v>1.68277912460056</v>
+        <v>4.701634</v>
       </c>
       <c r="I8">
-        <v>0.2189258316313832</v>
+        <v>0.1882168519798215</v>
       </c>
       <c r="J8">
-        <v>0.2189258316313832</v>
+        <v>0.1882168519798215</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.38041340379918</v>
+        <v>9.905103</v>
       </c>
       <c r="N8">
-        <v>9.38041340379918</v>
+        <v>29.715309</v>
       </c>
       <c r="O8">
-        <v>0.321735600464174</v>
+        <v>0.3244960450824553</v>
       </c>
       <c r="P8">
-        <v>0.321735600464174</v>
+        <v>0.3244960450824553</v>
       </c>
       <c r="Q8">
-        <v>15.78516385603654</v>
+        <v>15.523389679434</v>
       </c>
       <c r="R8">
-        <v>15.78516385603654</v>
+        <v>139.710507114906</v>
       </c>
       <c r="S8">
-        <v>0.07043623389704173</v>
+        <v>0.06107562408532199</v>
       </c>
       <c r="T8">
-        <v>0.07043623389704173</v>
+        <v>0.06107562408532199</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.68277912460056</v>
+        <v>1.567211333333334</v>
       </c>
       <c r="H9">
-        <v>1.68277912460056</v>
+        <v>4.701634</v>
       </c>
       <c r="I9">
-        <v>0.2189258316313832</v>
+        <v>0.1882168519798215</v>
       </c>
       <c r="J9">
-        <v>0.2189258316313832</v>
+        <v>0.1882168519798215</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.8836498318493</v>
+        <v>16.576418</v>
       </c>
       <c r="N9">
-        <v>15.8836498318493</v>
+        <v>49.729254</v>
       </c>
       <c r="O9">
-        <v>0.5447878890010289</v>
+        <v>0.5430516050800909</v>
       </c>
       <c r="P9">
-        <v>0.5447878890010289</v>
+        <v>0.5430516050800909</v>
       </c>
       <c r="Q9">
-        <v>26.72867435950119</v>
+        <v>25.97875015567067</v>
       </c>
       <c r="R9">
-        <v>26.72867435950119</v>
+        <v>233.808751401036</v>
       </c>
       <c r="S9">
-        <v>0.1192681416622559</v>
+        <v>0.102211463570764</v>
       </c>
       <c r="T9">
-        <v>0.1192681416622559</v>
+        <v>0.102211463570764</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.68277912460056</v>
+        <v>1.567211333333334</v>
       </c>
       <c r="H10">
-        <v>1.68277912460056</v>
+        <v>4.701634</v>
       </c>
       <c r="I10">
-        <v>0.2189258316313832</v>
+        <v>0.1882168519798215</v>
       </c>
       <c r="J10">
-        <v>0.2189258316313832</v>
+        <v>0.1882168519798215</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.89159560429923</v>
+        <v>3.955061333333333</v>
       </c>
       <c r="N10">
-        <v>3.89159560429923</v>
+        <v>11.865184</v>
       </c>
       <c r="O10">
-        <v>0.1334765105347971</v>
+        <v>0.1295697541686552</v>
       </c>
       <c r="P10">
-        <v>0.1334765105347971</v>
+        <v>0.1295697541686552</v>
       </c>
       <c r="Q10">
-        <v>6.548695844302045</v>
+        <v>6.198416945628445</v>
       </c>
       <c r="R10">
-        <v>6.548695844302045</v>
+        <v>55.785752510656</v>
       </c>
       <c r="S10">
-        <v>0.02922145607208553</v>
+        <v>0.02438721124142364</v>
       </c>
       <c r="T10">
-        <v>0.02922145607208553</v>
+        <v>0.02438721124142364</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.93618362944958</v>
+        <v>1.567211333333334</v>
       </c>
       <c r="H11">
-        <v>3.93618362944958</v>
+        <v>4.701634</v>
       </c>
       <c r="I11">
-        <v>0.5120887595605479</v>
+        <v>0.1882168519798215</v>
       </c>
       <c r="J11">
-        <v>0.5120887595605479</v>
+        <v>0.1882168519798215</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>9.38041340379918</v>
+        <v>0.08116466666666666</v>
       </c>
       <c r="N11">
-        <v>9.38041340379918</v>
+        <v>0.243494</v>
       </c>
       <c r="O11">
-        <v>0.321735600464174</v>
+        <v>0.002658994392463069</v>
       </c>
       <c r="P11">
-        <v>0.321735600464174</v>
+        <v>0.002658994392463069</v>
       </c>
       <c r="Q11">
-        <v>36.92302967750374</v>
+        <v>0.1272021854662222</v>
       </c>
       <c r="R11">
-        <v>36.92302967750374</v>
+        <v>1.144819669196</v>
       </c>
       <c r="S11">
-        <v>0.1647571845481669</v>
+        <v>0.000500467553981397</v>
       </c>
       <c r="T11">
-        <v>0.1647571845481669</v>
+        <v>0.0005004675539813969</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.93618362944958</v>
+        <v>0.849563</v>
       </c>
       <c r="H12">
-        <v>3.93618362944958</v>
+        <v>2.548689</v>
       </c>
       <c r="I12">
-        <v>0.5120887595605479</v>
+        <v>0.1020296816501666</v>
       </c>
       <c r="J12">
-        <v>0.5120887595605479</v>
+        <v>0.1020296816501666</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>15.8836498318493</v>
+        <v>0.006825333333333333</v>
       </c>
       <c r="N12">
-        <v>15.8836498318493</v>
+        <v>0.020476</v>
       </c>
       <c r="O12">
-        <v>0.5447878890010289</v>
+        <v>0.0002236012763356543</v>
       </c>
       <c r="P12">
-        <v>0.5447878890010289</v>
+        <v>0.0002236012763356543</v>
       </c>
       <c r="Q12">
-        <v>62.52096244403479</v>
+        <v>0.005798550662666667</v>
       </c>
       <c r="R12">
-        <v>62.52096244403479</v>
+        <v>0.052186955964</v>
       </c>
       <c r="S12">
-        <v>0.2789797543021463</v>
+        <v>2.281396704109773E-05</v>
       </c>
       <c r="T12">
-        <v>0.2789797543021463</v>
+        <v>2.281396704109773E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.849563</v>
+      </c>
+      <c r="H13">
+        <v>2.548689</v>
+      </c>
+      <c r="I13">
+        <v>0.1020296816501666</v>
+      </c>
+      <c r="J13">
+        <v>0.1020296816501666</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>9.905103</v>
+      </c>
+      <c r="N13">
+        <v>29.715309</v>
+      </c>
+      <c r="O13">
+        <v>0.3244960450824553</v>
+      </c>
+      <c r="P13">
+        <v>0.3244960450824553</v>
+      </c>
+      <c r="Q13">
+        <v>8.415009019989</v>
+      </c>
+      <c r="R13">
+        <v>75.735081179901</v>
+      </c>
+      <c r="S13">
+        <v>0.03310822817650102</v>
+      </c>
+      <c r="T13">
+        <v>0.03310822817650102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.849563</v>
+      </c>
+      <c r="H14">
+        <v>2.548689</v>
+      </c>
+      <c r="I14">
+        <v>0.1020296816501666</v>
+      </c>
+      <c r="J14">
+        <v>0.1020296816501666</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>16.576418</v>
+      </c>
+      <c r="N14">
+        <v>49.729254</v>
+      </c>
+      <c r="O14">
+        <v>0.5430516050800909</v>
+      </c>
+      <c r="P14">
+        <v>0.5430516050800909</v>
+      </c>
+      <c r="Q14">
+        <v>14.082711405334</v>
+      </c>
+      <c r="R14">
+        <v>126.744402648006</v>
+      </c>
+      <c r="S14">
+        <v>0.05540738238593366</v>
+      </c>
+      <c r="T14">
+        <v>0.05540738238593366</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.849563</v>
+      </c>
+      <c r="H15">
+        <v>2.548689</v>
+      </c>
+      <c r="I15">
+        <v>0.1020296816501666</v>
+      </c>
+      <c r="J15">
+        <v>0.1020296816501666</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>3.955061333333333</v>
+      </c>
+      <c r="N15">
+        <v>11.865184</v>
+      </c>
+      <c r="O15">
+        <v>0.1295697541686552</v>
+      </c>
+      <c r="P15">
+        <v>0.1295697541686552</v>
+      </c>
+      <c r="Q15">
+        <v>3.360073771530666</v>
+      </c>
+      <c r="R15">
+        <v>30.240663943776</v>
+      </c>
+      <c r="S15">
+        <v>0.01321996076931823</v>
+      </c>
+      <c r="T15">
+        <v>0.01321996076931823</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.849563</v>
+      </c>
+      <c r="H16">
+        <v>2.548689</v>
+      </c>
+      <c r="I16">
+        <v>0.1020296816501666</v>
+      </c>
+      <c r="J16">
+        <v>0.1020296816501666</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.08116466666666666</v>
+      </c>
+      <c r="N16">
+        <v>0.243494</v>
+      </c>
+      <c r="O16">
+        <v>0.002658994392463069</v>
+      </c>
+      <c r="P16">
+        <v>0.002658994392463069</v>
+      </c>
+      <c r="Q16">
+        <v>0.06895449770733332</v>
+      </c>
+      <c r="R16">
+        <v>0.620590479366</v>
+      </c>
+      <c r="S16">
+        <v>0.000271296351372585</v>
+      </c>
+      <c r="T16">
+        <v>0.000271296351372585</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>3.93618362944958</v>
-      </c>
-      <c r="H13">
-        <v>3.93618362944958</v>
-      </c>
-      <c r="I13">
-        <v>0.5120887595605479</v>
-      </c>
-      <c r="J13">
-        <v>0.5120887595605479</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>3.89159560429923</v>
-      </c>
-      <c r="N13">
-        <v>3.89159560429923</v>
-      </c>
-      <c r="O13">
-        <v>0.1334765105347971</v>
-      </c>
-      <c r="P13">
-        <v>0.1334765105347971</v>
-      </c>
-      <c r="Q13">
-        <v>15.31803491008057</v>
-      </c>
-      <c r="R13">
-        <v>15.31803491008057</v>
-      </c>
-      <c r="S13">
-        <v>0.06835182071023464</v>
-      </c>
-      <c r="T13">
-        <v>0.06835182071023464</v>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.722855</v>
+      </c>
+      <c r="H17">
+        <v>5.168565</v>
+      </c>
+      <c r="I17">
+        <v>0.2069091370262097</v>
+      </c>
+      <c r="J17">
+        <v>0.2069091370262097</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.006825333333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.020476</v>
+      </c>
+      <c r="O17">
+        <v>0.0002236012763356543</v>
+      </c>
+      <c r="P17">
+        <v>0.0002236012763356543</v>
+      </c>
+      <c r="Q17">
+        <v>0.01175905966</v>
+      </c>
+      <c r="R17">
+        <v>0.10583153694</v>
+      </c>
+      <c r="S17">
+        <v>4.626514712456927E-05</v>
+      </c>
+      <c r="T17">
+        <v>4.626514712456926E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.722855</v>
+      </c>
+      <c r="H18">
+        <v>5.168565</v>
+      </c>
+      <c r="I18">
+        <v>0.2069091370262097</v>
+      </c>
+      <c r="J18">
+        <v>0.2069091370262097</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>9.905103</v>
+      </c>
+      <c r="N18">
+        <v>29.715309</v>
+      </c>
+      <c r="O18">
+        <v>0.3244960450824553</v>
+      </c>
+      <c r="P18">
+        <v>0.3244960450824553</v>
+      </c>
+      <c r="Q18">
+        <v>17.065056229065</v>
+      </c>
+      <c r="R18">
+        <v>153.585506061585</v>
+      </c>
+      <c r="S18">
+        <v>0.06714119665642884</v>
+      </c>
+      <c r="T18">
+        <v>0.06714119665642884</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.722855</v>
+      </c>
+      <c r="H19">
+        <v>5.168565</v>
+      </c>
+      <c r="I19">
+        <v>0.2069091370262097</v>
+      </c>
+      <c r="J19">
+        <v>0.2069091370262097</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>16.576418</v>
+      </c>
+      <c r="N19">
+        <v>49.729254</v>
+      </c>
+      <c r="O19">
+        <v>0.5430516050800909</v>
+      </c>
+      <c r="P19">
+        <v>0.5430516050800909</v>
+      </c>
+      <c r="Q19">
+        <v>28.55876463339</v>
+      </c>
+      <c r="R19">
+        <v>257.0288817005101</v>
+      </c>
+      <c r="S19">
+        <v>0.1123623389678196</v>
+      </c>
+      <c r="T19">
+        <v>0.1123623389678196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.722855</v>
+      </c>
+      <c r="H20">
+        <v>5.168565</v>
+      </c>
+      <c r="I20">
+        <v>0.2069091370262097</v>
+      </c>
+      <c r="J20">
+        <v>0.2069091370262097</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>3.955061333333333</v>
+      </c>
+      <c r="N20">
+        <v>11.865184</v>
+      </c>
+      <c r="O20">
+        <v>0.1295697541686552</v>
+      </c>
+      <c r="P20">
+        <v>0.1295697541686552</v>
+      </c>
+      <c r="Q20">
+        <v>6.81399719344</v>
+      </c>
+      <c r="R20">
+        <v>61.32597474096</v>
+      </c>
+      <c r="S20">
+        <v>0.02680916601973458</v>
+      </c>
+      <c r="T20">
+        <v>0.02680916601973458</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.722855</v>
+      </c>
+      <c r="H21">
+        <v>5.168565</v>
+      </c>
+      <c r="I21">
+        <v>0.2069091370262097</v>
+      </c>
+      <c r="J21">
+        <v>0.2069091370262097</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.08116466666666666</v>
+      </c>
+      <c r="N21">
+        <v>0.243494</v>
+      </c>
+      <c r="O21">
+        <v>0.002658994392463069</v>
+      </c>
+      <c r="P21">
+        <v>0.002658994392463069</v>
+      </c>
+      <c r="Q21">
+        <v>0.13983495179</v>
+      </c>
+      <c r="R21">
+        <v>1.25851456611</v>
+      </c>
+      <c r="S21">
+        <v>0.0005501702351020642</v>
+      </c>
+      <c r="T21">
+        <v>0.0005501702351020642</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>4.016919666666666</v>
+      </c>
+      <c r="H22">
+        <v>12.050759</v>
+      </c>
+      <c r="I22">
+        <v>0.4824186491223056</v>
+      </c>
+      <c r="J22">
+        <v>0.4824186491223055</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.006825333333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.020476</v>
+      </c>
+      <c r="O22">
+        <v>0.0002236012763356543</v>
+      </c>
+      <c r="P22">
+        <v>0.0002236012763356543</v>
+      </c>
+      <c r="Q22">
+        <v>0.02741681569822222</v>
+      </c>
+      <c r="R22">
+        <v>0.246751341284</v>
+      </c>
+      <c r="S22">
+        <v>0.0001078694256718697</v>
+      </c>
+      <c r="T22">
+        <v>0.0001078694256718697</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>4.016919666666666</v>
+      </c>
+      <c r="H23">
+        <v>12.050759</v>
+      </c>
+      <c r="I23">
+        <v>0.4824186491223056</v>
+      </c>
+      <c r="J23">
+        <v>0.4824186491223055</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>9.905103</v>
+      </c>
+      <c r="N23">
+        <v>29.715309</v>
+      </c>
+      <c r="O23">
+        <v>0.3244960450824553</v>
+      </c>
+      <c r="P23">
+        <v>0.3244960450824553</v>
+      </c>
+      <c r="Q23">
+        <v>39.788003041059</v>
+      </c>
+      <c r="R23">
+        <v>358.092027369531</v>
+      </c>
+      <c r="S23">
+        <v>0.1565429437142088</v>
+      </c>
+      <c r="T23">
+        <v>0.1565429437142088</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>4.016919666666666</v>
+      </c>
+      <c r="H24">
+        <v>12.050759</v>
+      </c>
+      <c r="I24">
+        <v>0.4824186491223056</v>
+      </c>
+      <c r="J24">
+        <v>0.4824186491223055</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>16.576418</v>
+      </c>
+      <c r="N24">
+        <v>49.729254</v>
+      </c>
+      <c r="O24">
+        <v>0.5430516050800909</v>
+      </c>
+      <c r="P24">
+        <v>0.5430516050800909</v>
+      </c>
+      <c r="Q24">
+        <v>66.58613946708734</v>
+      </c>
+      <c r="R24">
+        <v>599.2752552037861</v>
+      </c>
+      <c r="S24">
+        <v>0.2619782217264372</v>
+      </c>
+      <c r="T24">
+        <v>0.2619782217264372</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>4.016919666666666</v>
+      </c>
+      <c r="H25">
+        <v>12.050759</v>
+      </c>
+      <c r="I25">
+        <v>0.4824186491223056</v>
+      </c>
+      <c r="J25">
+        <v>0.4824186491223055</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>3.955061333333333</v>
+      </c>
+      <c r="N25">
+        <v>11.865184</v>
+      </c>
+      <c r="O25">
+        <v>0.1295697541686552</v>
+      </c>
+      <c r="P25">
+        <v>0.1295697541686552</v>
+      </c>
+      <c r="Q25">
+        <v>15.88716365273955</v>
+      </c>
+      <c r="R25">
+        <v>142.984472874656</v>
+      </c>
+      <c r="S25">
+        <v>0.06250686577315186</v>
+      </c>
+      <c r="T25">
+        <v>0.06250686577315184</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>4.016919666666666</v>
+      </c>
+      <c r="H26">
+        <v>12.050759</v>
+      </c>
+      <c r="I26">
+        <v>0.4824186491223056</v>
+      </c>
+      <c r="J26">
+        <v>0.4824186491223055</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.08116466666666666</v>
+      </c>
+      <c r="N26">
+        <v>0.243494</v>
+      </c>
+      <c r="O26">
+        <v>0.002658994392463069</v>
+      </c>
+      <c r="P26">
+        <v>0.002658994392463069</v>
+      </c>
+      <c r="Q26">
+        <v>0.3260319457717777</v>
+      </c>
+      <c r="R26">
+        <v>2.934287511946</v>
+      </c>
+      <c r="S26">
+        <v>0.00128274848283582</v>
+      </c>
+      <c r="T26">
+        <v>0.001282748482835819</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G27">
+        <v>0.115704</v>
+      </c>
+      <c r="H27">
+        <v>0.347112</v>
+      </c>
+      <c r="I27">
+        <v>0.01389566434231584</v>
+      </c>
+      <c r="J27">
+        <v>0.01389566434231584</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.006825333333333333</v>
+      </c>
+      <c r="N27">
+        <v>0.020476</v>
+      </c>
+      <c r="O27">
+        <v>0.0002236012763356543</v>
+      </c>
+      <c r="P27">
+        <v>0.0002236012763356543</v>
+      </c>
+      <c r="Q27">
+        <v>0.000789718368</v>
+      </c>
+      <c r="R27">
+        <v>0.007107465312</v>
+      </c>
+      <c r="S27">
+        <v>3.107088282473662E-06</v>
+      </c>
+      <c r="T27">
+        <v>3.107088282473662E-06</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>0.115704</v>
+      </c>
+      <c r="H28">
+        <v>0.347112</v>
+      </c>
+      <c r="I28">
+        <v>0.01389566434231584</v>
+      </c>
+      <c r="J28">
+        <v>0.01389566434231584</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>9.905103</v>
+      </c>
+      <c r="N28">
+        <v>29.715309</v>
+      </c>
+      <c r="O28">
+        <v>0.3244960450824553</v>
+      </c>
+      <c r="P28">
+        <v>0.3244960450824553</v>
+      </c>
+      <c r="Q28">
+        <v>1.146060037512</v>
+      </c>
+      <c r="R28">
+        <v>10.314540337608</v>
+      </c>
+      <c r="S28">
+        <v>0.004509088122874788</v>
+      </c>
+      <c r="T28">
+        <v>0.004509088122874788</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G29">
+        <v>0.115704</v>
+      </c>
+      <c r="H29">
+        <v>0.347112</v>
+      </c>
+      <c r="I29">
+        <v>0.01389566434231584</v>
+      </c>
+      <c r="J29">
+        <v>0.01389566434231584</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>16.576418</v>
+      </c>
+      <c r="N29">
+        <v>49.729254</v>
+      </c>
+      <c r="O29">
+        <v>0.5430516050800909</v>
+      </c>
+      <c r="P29">
+        <v>0.5430516050800909</v>
+      </c>
+      <c r="Q29">
+        <v>1.917957868272</v>
+      </c>
+      <c r="R29">
+        <v>17.261620814448</v>
+      </c>
+      <c r="S29">
+        <v>0.007546062824748803</v>
+      </c>
+      <c r="T29">
+        <v>0.007546062824748803</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G30">
+        <v>0.115704</v>
+      </c>
+      <c r="H30">
+        <v>0.347112</v>
+      </c>
+      <c r="I30">
+        <v>0.01389566434231584</v>
+      </c>
+      <c r="J30">
+        <v>0.01389566434231584</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>3.955061333333333</v>
+      </c>
+      <c r="N30">
+        <v>11.865184</v>
+      </c>
+      <c r="O30">
+        <v>0.1295697541686552</v>
+      </c>
+      <c r="P30">
+        <v>0.1295697541686552</v>
+      </c>
+      <c r="Q30">
+        <v>0.4576164165119999</v>
+      </c>
+      <c r="R30">
+        <v>4.118547748607999</v>
+      </c>
+      <c r="S30">
+        <v>0.001800457812844011</v>
+      </c>
+      <c r="T30">
+        <v>0.001800457812844011</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.115704</v>
+      </c>
+      <c r="H31">
+        <v>0.347112</v>
+      </c>
+      <c r="I31">
+        <v>0.01389566434231584</v>
+      </c>
+      <c r="J31">
+        <v>0.01389566434231584</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M31">
+        <v>0.08116466666666666</v>
+      </c>
+      <c r="N31">
+        <v>0.243494</v>
+      </c>
+      <c r="O31">
+        <v>0.002658994392463069</v>
+      </c>
+      <c r="P31">
+        <v>0.002658994392463069</v>
+      </c>
+      <c r="Q31">
+        <v>0.009391076591999999</v>
+      </c>
+      <c r="R31">
+        <v>0.08451968932799998</v>
+      </c>
+      <c r="S31">
+        <v>3.694849356576684E-05</v>
+      </c>
+      <c r="T31">
+        <v>3.694849356576684E-05</v>
       </c>
     </row>
   </sheetData>
